--- a/IntentTemplate.xlsx
+++ b/IntentTemplate.xlsx
@@ -3,17 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F21C1A6-A889-43E3-8EFA-ECE35FE3646D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993400C5-F220-41A0-8D45-B0028197DBBD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -40,13 +46,13 @@
     <t>My intent number two</t>
   </si>
   <si>
-    <t>Example two</t>
-  </si>
-  <si>
     <t>My first answer | Second answer |Another answer</t>
   </si>
   <si>
-    <t>Just one answer</t>
+    <t xml:space="preserve">Just one answer </t>
+  </si>
+  <si>
+    <t>Just one phrase</t>
   </si>
 </sst>
 </file>
@@ -366,12 +372,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -393,7 +402,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -401,10 +410,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
